--- a/expense_tracker/august.xlsx
+++ b/expense_tracker/august.xlsx
@@ -413,14 +413,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Money Spent</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/expense_tracker/august.xlsx
+++ b/expense_tracker/august.xlsx
@@ -2,28 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="18080" windowWidth="15960" xWindow="0" yWindow="40"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color indexed="8"/>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,103 +48,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -162,80 +143,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -267,20 +190,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -292,7 +211,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -313,16 +232,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,23 +241,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -402,8 +310,882 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
@@ -413,32 +1195,86 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.83333" defaultRowHeight="15" outlineLevelRow="0"/>
+  <cols>
+    <col customWidth="1" max="5" min="1" style="1" width="8.851559999999999"/>
+    <col customWidth="1" max="256" min="6" style="1" width="8.851559999999999"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row customHeight="1" ht="16" r="1" s="4">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Money Spent</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
     </row>
+    <row customHeight="1" ht="16" r="2" s="4">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>new phone</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="16" r="3" s="4">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>chips</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="16" r="4" s="4"/>
+    <row customHeight="1" ht="16" r="5" s="4"/>
+    <row customHeight="1" ht="16" r="6" s="4"/>
+    <row customHeight="1" ht="16" r="7" s="4"/>
+    <row customHeight="1" ht="16" r="8" s="4"/>
+    <row customHeight="1" ht="16" r="9" s="4"/>
+    <row customHeight="1" ht="16" r="10" s="4"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" scale="100" useFirstPageNumber="0"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/expense_tracker/august.xlsx
+++ b/expense_tracker/august.xlsx
@@ -1195,7 +1195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1242,23 +1242,39 @@
       </c>
     </row>
     <row customHeight="1" ht="16" r="3" s="4">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>chips</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="4" s="4"/>
+    <row customHeight="1" ht="16" r="4" s="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>new shoes</t>
+        </is>
+      </c>
+    </row>
     <row customHeight="1" ht="16" r="5" s="4"/>
     <row customHeight="1" ht="16" r="6" s="4"/>
     <row customHeight="1" ht="16" r="7" s="4"/>

--- a/expense_tracker/august.xlsx
+++ b/expense_tracker/august.xlsx
@@ -1195,7 +1195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1227,55 +1227,63 @@
     <row customHeight="1" ht="16" r="2" s="4">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="B2" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>new phone</t>
+          <t>fireworks</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16" r="3" s="4">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>shoes</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="16" r="4" s="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="16" r="5" s="4">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>watch</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>chips</t>
-        </is>
-      </c>
     </row>
-    <row customHeight="1" ht="16" r="4" s="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>new shoes</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="16" r="5" s="4"/>
     <row customHeight="1" ht="16" r="6" s="4"/>
     <row customHeight="1" ht="16" r="7" s="4"/>
     <row customHeight="1" ht="16" r="8" s="4"/>
